--- a/5.xlsx
+++ b/5.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_2A3137815BD0D127FFB82A11595ED87656CD5937" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A220DF19-D8CC-4E6B-B967-C9F207C6F2AD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2550" yWindow="2535" windowWidth="18975" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2205" yWindow="3225" windowWidth="18975" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -846,6 +846,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1193,7 +1194,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
